--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -691,28 +691,28 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.22</v>
@@ -733,7 +733,7 @@
         <v>160</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>9.800000000000001</v>
@@ -742,7 +742,7 @@
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -769,7 +769,7 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -670,31 +670,31 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
         <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.3</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>2.08</v>
@@ -715,64 +715,64 @@
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
         <v>2.38</v>
       </c>
       <c r="X2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>21</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -946,10 +946,10 @@
         <v>1.42</v>
       </c>
       <c r="I4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
         <v>5.1</v>
@@ -967,7 +967,7 @@
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
         <v>1.9</v>
@@ -982,10 +982,10 @@
         <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="W4" t="n">
         <v>1.1</v>
@@ -1003,7 +1003,7 @@
         <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
@@ -1042,7 +1042,7 @@
         <v>370</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.7</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.72</v>
-      </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -685,46 +685,46 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -769,7 +769,7 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO2" t="n">
         <v>85</v>
@@ -949,7 +949,7 @@
         <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
         <v>5.1</v>
@@ -1018,7 +1018,7 @@
         <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -676,7 +676,7 @@
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -703,7 +703,7 @@
         <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -712,19 +712,19 @@
         <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -949,7 +949,7 @@
         <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
         <v>5.1</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
         <v>500</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -670,7 +670,7 @@
         <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -949,10 +949,10 @@
         <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -982,10 +982,10 @@
         <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.1</v>
@@ -1012,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.01</v>
       </c>
-      <c r="K3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -943,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="I4" t="n">
         <v>1.44</v>
@@ -952,7 +952,7 @@
         <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -961,31 +961,31 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.1</v>
@@ -994,22 +994,22 @@
         <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA4" t="n">
         <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1021,25 +1021,25 @@
         <v>42</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="AK4" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AL4" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AM4" t="n">
         <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AO4" t="n">
         <v>7.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -670,7 +670,7 @@
         <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -682,7 +682,7 @@
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -691,34 +691,34 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>2.26</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -838,16 +838,16 @@
         <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -949,13 +949,13 @@
         <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
         <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -970,13 +970,13 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>2.08</v>
@@ -991,40 +991,40 @@
         <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>470</v>
@@ -1042,7 +1042,7 @@
         <v>340</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -697,7 +697,7 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>1.83</v>
@@ -709,7 +709,7 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -721,7 +721,7 @@
         <v>2.42</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J4" t="n">
         <v>4.9</v>
@@ -970,13 +970,13 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
         <v>2.08</v>
@@ -985,25 +985,25 @@
         <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>11.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1015,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
         <v>36</v>
@@ -1027,19 +1027,19 @@
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="AK4" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AL4" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
         <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AO4" t="n">
         <v>7.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -697,7 +697,7 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
         <v>1.83</v>
@@ -709,7 +709,7 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -736,7 +736,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I4" t="n">
         <v>1.45</v>
@@ -985,7 +985,7 @@
         <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -697,7 +697,7 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
         <v>1.83</v>
@@ -724,7 +724,7 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
@@ -847,7 +847,7 @@
         <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
@@ -985,7 +985,7 @@
         <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.69</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -709,7 +709,7 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -718,7 +718,7 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="I3" t="n">
         <v>16.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -829,7 +829,7 @@
         <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
         <v>1.62</v>
@@ -841,7 +841,7 @@
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
         <v>2.62</v>
@@ -853,10 +853,10 @@
         <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
@@ -871,19 +871,19 @@
         <v>5.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
         <v>55</v>
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
         <v>90</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,16 +943,16 @@
         <v>10.5</v>
       </c>
       <c r="H4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.43</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.45</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -979,25 +979,25 @@
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA4" t="n">
         <v>11.5</v>
@@ -1012,34 +1012,34 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="n">
         <v>36</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AK4" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AO4" t="n">
         <v>7.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -673,10 +673,10 @@
         <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -694,7 +694,7 @@
         <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>2.14</v>
@@ -703,19 +703,19 @@
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
         <v>2.44</v>
@@ -736,7 +736,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -748,7 +748,7 @@
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -769,7 +769,7 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
         <v>85</v>
@@ -805,19 +805,19 @@
         <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -829,7 +829,7 @@
         <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
         <v>1.62</v>
@@ -841,25 +841,25 @@
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T3" t="n">
         <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,19 +871,19 @@
         <v>5.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>55</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -955,7 +955,7 @@
         <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -985,7 +985,7 @@
         <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>
@@ -1027,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AK4" t="n">
         <v>180</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -694,25 +694,25 @@
         <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -769,7 +769,7 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO2" t="n">
         <v>85</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
         <v>15.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
         <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
         <v>4.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="U3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
@@ -871,7 +871,7 @@
         <v>5.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
         <v>65</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK3" t="n">
         <v>25</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,19 +943,19 @@
         <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
         <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -970,13 +970,13 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>2.12</v>
@@ -985,16 +985,16 @@
         <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
         <v>7.8</v>
@@ -1021,19 +1021,19 @@
         <v>36</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
         <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AK4" t="n">
         <v>180</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
         <v>210</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -670,22 +670,22 @@
         <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>5.7</v>
       </c>
-      <c r="I2" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,10 +700,10 @@
         <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -715,19 +715,19 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
         <v>150</v>
@@ -736,10 +736,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -760,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
         <v>1.44</v>
@@ -817,7 +817,7 @@
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.46</v>
@@ -847,13 +847,13 @@
         <v>2.66</v>
       </c>
       <c r="U3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X3" t="n">
         <v>11.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.42</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.44</v>
       </c>
       <c r="J4" t="n">
         <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -970,7 +970,7 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
@@ -979,13 +979,13 @@
         <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U4" t="n">
         <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>
@@ -997,10 +997,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>28</v>
@@ -1015,7 +1015,7 @@
         <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
         <v>36</v>
@@ -1027,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AK4" t="n">
         <v>180</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -697,16 +697,16 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.85</v>
@@ -718,19 +718,19 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>9.199999999999999</v>
@@ -739,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
@@ -751,7 +751,7 @@
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>75</v>
@@ -769,10 +769,10 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J4" t="n">
         <v>5.2</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -970,22 +970,22 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
         <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>
@@ -1033,7 +1033,7 @@
         <v>180</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
         <v>210</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -697,7 +697,7 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
         <v>1.84</v>
@@ -709,16 +709,16 @@
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G4" t="n">
         <v>9.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
         <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -970,7 +970,7 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
@@ -982,7 +982,7 @@
         <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V4" t="n">
         <v>3.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -685,7 +685,7 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -724,7 +724,7 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
@@ -733,7 +733,7 @@
         <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -769,7 +769,7 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>75</v>
@@ -886,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,16 +895,16 @@
         <v>13.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>9.4</v>
@@ -949,43 +949,43 @@
         <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
         <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
         <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.11</v>
@@ -994,10 +994,10 @@
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1042,7 +1042,7 @@
         <v>250</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
         <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -700,13 +700,13 @@
         <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.83</v>
@@ -718,7 +718,7 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -730,7 +730,7 @@
         <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>9.4</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G3" t="n">
         <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
         <v>15.5</v>
@@ -826,7 +826,7 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
         <v>1.43</v>
@@ -844,7 +844,7 @@
         <v>4.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="U3" t="n">
         <v>1.5</v>
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
         <v>48</v>
@@ -895,7 +895,7 @@
         <v>13.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
         <v>7.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="AK4" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AL4" t="n">
         <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
         <v>250</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
@@ -679,10 +679,10 @@
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -691,34 +691,34 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -730,19 +730,19 @@
         <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
@@ -751,10 +751,10 @@
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -766,13 +766,13 @@
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.43</v>
@@ -841,13 +841,13 @@
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T3" t="n">
         <v>2.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
@@ -913,136 +913,406 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Serra Branca EC</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Maguary</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>17:45:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Guimaraes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sporting Lisbon</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>340</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AO5" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>340</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Atletico San Luis</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -703,13 +703,13 @@
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
@@ -718,10 +718,10 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
@@ -760,10 +760,10 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>100</v>
@@ -772,13 +772,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Tombense MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Desportiva</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>1.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,34 +868,34 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Serra Branca EC</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Maguary</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.29</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,260 +1058,395 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Serra Branca EC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Maguary</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.199999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>600</v>
       </c>
       <c r="H5" t="n">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.3</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.04</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>1.32</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>340</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Friendly Matches</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>18:00:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Necaxa</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Atletico San Luis</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.04</v>
       </c>
-      <c r="G6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="K7" t="n">
+        <v>32</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.04</v>
       </c>
-      <c r="I6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="U7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.02</v>
       </c>
-      <c r="K6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="W7" t="n">
         <v>1.02</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
         <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -685,13 +685,13 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -712,7 +712,7 @@
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
@@ -736,7 +736,7 @@
         <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -748,7 +748,7 @@
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>19.5</v>
@@ -757,7 +757,7 @@
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -766,10 +766,10 @@
         <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
         <v>75</v>
@@ -814,40 +814,40 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.25</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
@@ -988,13 +988,13 @@
         <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>5.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>6.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>48</v>
@@ -1027,13 +1027,13 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1099,13 +1099,13 @@
         <v>1.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
         <v>1.46</v>
@@ -1225,70 +1225,70 @@
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
         <v>3.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE6" t="n">
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1297,22 +1297,22 @@
         <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AK6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AL6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7">
@@ -1375,13 +1375,13 @@
         <v>1.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1447,6 +1447,141 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K8" t="n">
+        <v>950</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -685,22 +685,22 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
@@ -715,10 +715,10 @@
         <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>140</v>
@@ -766,13 +766,13 @@
         <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
         <v>9.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>980</v>
@@ -835,7 +835,7 @@
         <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -940,40 +940,40 @@
         <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I4" t="n">
         <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>2.94</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
         <v>4.4</v>
@@ -988,7 +988,7 @@
         <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1009,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1033,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1237,16 +1237,16 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
         <v>2.1</v>
@@ -1264,7 +1264,7 @@
         <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>8.199999999999999</v>
@@ -1294,7 +1294,7 @@
         <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
         <v>300</v>
@@ -1312,7 +1312,7 @@
         <v>180</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7">
@@ -1381,7 +1381,7 @@
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1513,7 +1513,7 @@
         <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
         <v>1.37</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
         <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
@@ -718,25 +718,25 @@
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -754,25 +754,25 @@
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>1.1</v>
@@ -937,49 +937,49 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
         <v>13.5</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
         <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="U4" t="n">
         <v>1.52</v>
@@ -988,13 +988,13 @@
         <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>5.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>160</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I6" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="J6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.9</v>
       </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
         <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
         <v>8.199999999999999</v>
@@ -1273,7 +1273,7 @@
         <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
@@ -1285,34 +1285,34 @@
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AK6" t="n">
         <v>140</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM6" t="n">
         <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -694,31 +694,31 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -727,52 +727,52 @@
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -805,7 +805,7 @@
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
         <v>1.04</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
         <v>980</v>
@@ -823,7 +823,7 @@
         <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>1.1</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,49 +937,49 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
         <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="U4" t="n">
         <v>1.52</v>
@@ -988,13 +988,13 @@
         <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.05</v>
+        <v>2.98</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>1.32</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>8.4</v>
       </c>
       <c r="G6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
         <v>1.48</v>
       </c>
       <c r="I6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
         <v>4.7</v>
@@ -1231,16 +1231,16 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1249,10 +1249,10 @@
         <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -1261,13 +1261,13 @@
         <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
         <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>12.5</v>
@@ -1291,13 +1291,13 @@
         <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AK6" t="n">
         <v>140</v>
@@ -1312,7 +1312,7 @@
         <v>200</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.34</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>1.59</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>1.66</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
         <v>4.7</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>440</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -829,13 +829,13 @@
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -955,22 +955,22 @@
         <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -979,10 +979,10 @@
         <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="V4" t="n">
         <v>1.06</v>
@@ -991,7 +991,7 @@
         <v>3.5</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>32</v>
@@ -1009,7 +1009,7 @@
         <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1033,13 +1033,13 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Serra Branca EC</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Maguary</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.98</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>2.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>3.35</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Serra Branca EC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Maguary</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.4</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.48</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
         <v>16</v>
       </c>
-      <c r="Y6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AE6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG6" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AH6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
         <v>26</v>
       </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AL6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO6" t="n">
         <v>38</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico San Luis</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.06</v>
       </c>
-      <c r="G7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K7" t="n">
-        <v>32</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.32</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.02</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.34</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="W7" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,125 +1463,260 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Real Espana</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X8" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.4</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>1.99</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>1.3</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>3.55</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>1.81</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>1.94</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V9" t="n">
         <v>1.28</v>
       </c>
-      <c r="W8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="W9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X9" t="n">
         <v>16</v>
       </c>
-      <c r="Y8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="Y9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>40</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA9" t="n">
         <v>120</v>
       </c>
-      <c r="AB8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD9" t="n">
         <v>22</v>
       </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AE9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AH9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK9" t="n">
         <v>27</v>
       </c>
-      <c r="AL8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>21</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO9" t="n">
         <v>85</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Tombense MG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Desportiva</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>1.32</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
-        <v>9.800000000000001</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>1.59</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.66</v>
+        <v>40</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.44</v>
+        <v>1.26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>11.5</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,22 +736,22 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.73</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,16 +760,16 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tombense MG</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Desportiva</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>1.97</v>
+        <v>1.39</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H4" t="n">
-        <v>14.5</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>17.5</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.43</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.28</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="T4" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>Serra Branca EC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>Maguary</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.29</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.4</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>3.35</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Serra Branca EC</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Maguary</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>1.48</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>1.49</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
         <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>27</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>70</v>
       </c>
-      <c r="AB6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.8</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>1.51</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1.52</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="T7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.08</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.92</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,261 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico San Luis</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.85</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.76</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>19</v>
       </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X9" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.11</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>17.5</v>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.47</v>
+        <v>3.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,31 +736,31 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG2" t="n">
         <v>980</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>5.3</v>
@@ -829,13 +829,13 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
         <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -844,22 +844,22 @@
         <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1078,10 +1078,10 @@
         <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1096,13 +1096,13 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
         <v>1.81</v>
@@ -1111,31 +1111,31 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
         <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
         <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
         <v>11.5</v>
@@ -1147,7 +1147,7 @@
         <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
         <v>16.5</v>
@@ -1159,7 +1159,7 @@
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
         <v>34</v>
@@ -1177,7 +1177,7 @@
         <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I6" t="n">
         <v>1.49</v>
@@ -1225,34 +1225,34 @@
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
         <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -1261,13 +1261,13 @@
         <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>12.5</v>
@@ -1279,7 +1279,7 @@
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE6" t="n">
         <v>15.5</v>
@@ -1291,13 +1291,13 @@
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AK6" t="n">
         <v>140</v>
@@ -1306,13 +1306,13 @@
         <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
         <v>180</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>4.3</v>
@@ -1369,13 +1369,13 @@
         <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.36</v>
@@ -1426,7 +1426,7 @@
         <v>40</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1480,19 +1480,19 @@
         <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
         <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.41</v>
@@ -1501,52 +1501,52 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
         <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
         <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
         <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>23</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tombense MG</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Desportiva</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="H2" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>110</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>3.45</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.37</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="U2" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,22 +745,22 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="H3" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.68</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
-        <v>2.74</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,70 +928,70 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>Serra Branca EC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>Maguary</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.36</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.23</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.96</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.41</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Serra Branca EC</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Maguary</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>1.47</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>1.49</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.89</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.81</v>
       </c>
       <c r="R5" t="n">
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.66</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.199999999999999</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.47</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,260 +1328,125 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico San Luis</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>1.84</v>
       </c>
       <c r="H7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.45</v>
       </c>
-      <c r="I7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.4</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.78</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>19</v>
       </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AK7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="n">
         <v>40</v>
       </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO8" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -670,109 +670,109 @@
         <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
         <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="U2" t="n">
         <v>1.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K3" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="S3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.12</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>19</v>
       </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>60</v>
       </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1078,16 +1078,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
@@ -1111,28 +1111,28 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>12.5</v>
@@ -1147,37 +1147,37 @@
         <v>9.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
         <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.34</v>
@@ -1231,34 +1231,34 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,100 +1342,100 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>40</v>
@@ -1444,10 +1444,10 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
+        <v>160</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S2" t="n">
+        <v>30</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>180</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>310</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>15</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>610</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>420</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
       <c r="K3" t="n">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.02</v>
       </c>
-      <c r="N3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>3.55</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
       <c r="P4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.85</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G5" t="n">
         <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1090,46 +1090,46 @@
         <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
         <v>8</v>
@@ -1138,43 +1138,43 @@
         <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>9.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
         <v>8</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
         <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
         <v>990</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
         <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Serra Branca EC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Maguary</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.12</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>1.09</v>
       </c>
       <c r="I2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="P2" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.3</v>
+        <v>1.05</v>
       </c>
       <c r="R2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.02</v>
       </c>
-      <c r="S2" t="n">
-        <v>30</v>
-      </c>
       <c r="T2" t="n">
-        <v>5.6</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.18</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.22</v>
+        <v>990</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>180</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>310</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>1.22</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>1.23</v>
       </c>
       <c r="J3" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="K3" t="n">
-        <v>18</v>
+        <v>6.8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>3.85</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>5.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,46 +868,46 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -923,24 +923,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Serra Branca EC</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Maguary</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
         <v>1.09</v>
@@ -949,10 +949,10 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>1.03</v>
@@ -961,46 +961,46 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P4" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>990</v>
@@ -1012,43 +1012,43 @@
         <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,396 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.8</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.52</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>2.92</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>160</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>260</v>
+        <v>18.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO5" t="n">
         <v>100</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,24 +653,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Serra Branca EC</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Maguary</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
         <v>1.09</v>
@@ -679,10 +679,10 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.03</v>
@@ -691,46 +691,46 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>990</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>990</v>
@@ -742,43 +742,43 @@
         <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,396 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>1.89</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.23</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>3.85</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>5.3</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="X3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="n">
         <v>1000</v>
       </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>38</v>
-      </c>
       <c r="AN3" t="n">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-23.xlsx
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>1.23</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="K3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
         <v>4.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
